--- a/biology/Zoologie/Eleutherodactylus_beguei/Eleutherodactylus_beguei.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_beguei/Eleutherodactylus_beguei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus beguei est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus beguei est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Guantánamo à Cuba[1]. Elle se rencontre à Yateras.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Guantánamo à Cuba. Elle se rencontre à Yateras.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 8 spécimens adultes mâles observés lors de la description originale mesurent entre 12,3 mm et 14,2 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 15,2 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 spécimens adultes mâles observés lors de la description originale mesurent entre 12,3 mm et 14,2 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 15,2 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerardo Begué Quiala[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerardo Begué Quiala.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Díaz &amp; Hedges, 2015 : Another new cryptic frog related to Eleutherodactylus varleyi Dunn (Amphibia: Anura: Eleutherodactylidae), from eastern Cuba. Solenodon, Revista Cubana de Taxonomía Zoológica, vol. 12, p. 124–135 (texte intégral).</t>
         </is>
